--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo1-Lgr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo1-Lgr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1978116666666667</v>
+        <v>0.08037899999999999</v>
       </c>
       <c r="N2">
-        <v>0.593435</v>
+        <v>0.241137</v>
       </c>
       <c r="O2">
-        <v>0.04478660411603409</v>
+        <v>0.01215705881223039</v>
       </c>
       <c r="P2">
-        <v>0.04478660411603409</v>
+        <v>0.01215705881223039</v>
       </c>
       <c r="Q2">
-        <v>0.03118929516944445</v>
+        <v>0.012673490895</v>
       </c>
       <c r="R2">
-        <v>0.280703656525</v>
+        <v>0.114061418055</v>
       </c>
       <c r="S2">
-        <v>0.04478660411603409</v>
+        <v>0.01215705881223039</v>
       </c>
       <c r="T2">
-        <v>0.04478660411603409</v>
+        <v>0.01215705881223039</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,22 +620,22 @@
         <v>5.821936</v>
       </c>
       <c r="O3">
-        <v>0.4393821443306967</v>
+        <v>0.2935162100923598</v>
       </c>
       <c r="P3">
-        <v>0.4393821443306967</v>
+        <v>0.2935162100923598</v>
       </c>
       <c r="Q3">
-        <v>0.3059847841155555</v>
+        <v>0.3059847841155556</v>
       </c>
       <c r="R3">
         <v>2.75386305704</v>
       </c>
       <c r="S3">
-        <v>0.4393821443306967</v>
+        <v>0.2935162100923598</v>
       </c>
       <c r="T3">
-        <v>0.4393821443306967</v>
+        <v>0.2935162100923598</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,96 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>2.232121666666667</v>
+        <v>4.590689999999999</v>
       </c>
       <c r="N4">
-        <v>6.696365</v>
+        <v>13.77207</v>
       </c>
       <c r="O4">
-        <v>0.5053753962463734</v>
+        <v>0.6943267310954097</v>
       </c>
       <c r="P4">
-        <v>0.5053753962463734</v>
+        <v>0.6943267310954098</v>
       </c>
       <c r="Q4">
-        <v>0.3519423433861111</v>
+        <v>0.7238217434499999</v>
       </c>
       <c r="R4">
-        <v>3.167481090475</v>
+        <v>6.51439569105</v>
       </c>
       <c r="S4">
-        <v>0.5053753962463734</v>
+        <v>0.6943267310954097</v>
       </c>
       <c r="T4">
-        <v>0.5053753962463734</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1576716666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.473015</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.046181</v>
-      </c>
-      <c r="N5">
-        <v>0.138543</v>
-      </c>
-      <c r="O5">
-        <v>0.0104558553068958</v>
-      </c>
-      <c r="P5">
-        <v>0.0104558553068958</v>
-      </c>
-      <c r="Q5">
-        <v>0.007281435238333332</v>
-      </c>
-      <c r="R5">
-        <v>0.06553291714499999</v>
-      </c>
-      <c r="S5">
-        <v>0.0104558553068958</v>
-      </c>
-      <c r="T5">
-        <v>0.0104558553068958</v>
+        <v>0.6943267310954098</v>
       </c>
     </row>
   </sheetData>
